--- a/appdata/data/test100_Test_Only.xlsx
+++ b/appdata/data/test100_Test_Only.xlsx
@@ -733,6 +733,618 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2002-09-02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Other...</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>UNZA Hostel</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2002-09-02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Other...</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>UNZA Hostel</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2002-09-02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Other...</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>UNZA Hostel</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2005-11-17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TwySHE Messenger App</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Used only by the participant and can receive confidential information</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>260977223344</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -887,6 +1499,261 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,6 +2523,3510 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Add Followup</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Edit Followup</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
